--- a/Assets/06 Data/ExcelData/Usable_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Usable_Item_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\덕코프\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyUnity\Duckov\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD140B5-4C6D-4C47-AA08-65D0BD15DDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2470CF49-76B0-4188-9749-BC615DBD27EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6FC80BC-1448-478E-B3D9-69242C647A71}"/>
+    <workbookView xWindow="6945" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{B6FC80BC-1448-478E-B3D9-69242C647A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,30 +98,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>healHP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수분</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,10 +138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>durabilityCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Food</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -182,7 +154,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>weightValue</t>
+    <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealHP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DurabilityCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +631,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,57 +641,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>14</v>
@@ -708,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -740,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -772,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -836,7 +836,7 @@
         <v>1256</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -868,7 +868,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -900,7 +900,7 @@
         <v>883</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -932,7 +932,7 @@
         <v>403</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -964,7 +964,7 @@
         <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -996,10 +996,10 @@
         <v>428</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>375</v>
@@ -1028,7 +1028,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>

--- a/Assets/06 Data/ExcelData/Usable_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Usable_Item_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyUnity\Duckov\Assets\06 Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\duckov-clone\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2470CF49-76B0-4188-9749-BC615DBD27EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD131FD-04FF-4EFE-A8BA-58737D4BC921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{B6FC80BC-1448-478E-B3D9-69242C647A71}"/>
+    <workbookView xWindow="1140" yWindow="7320" windowWidth="21600" windowHeight="11295" xr2:uid="{B6FC80BC-1448-478E-B3D9-69242C647A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>콜라</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Food</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -183,6 +179,30 @@
   </si>
   <si>
     <t>WeightValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -628,105 +648,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03432785-0241-4416-9435-5F8D756A938F}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
@@ -734,356 +770,392 @@
       <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>240</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.05</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>807</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.75</v>
-      </c>
-      <c r="F5" s="1">
-        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>20</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>1322</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1.2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>35</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1256</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>12490</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.78</v>
-      </c>
-      <c r="F7" s="1">
-        <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
       </c>
       <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
         <v>50</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>-100</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>124</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>124</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>100</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
         <v>20</v>
       </c>
-      <c r="I8" s="1">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>883</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>470</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>1.02</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>100</v>
       </c>
       <c r="I9" s="1">
+        <v>100</v>
+      </c>
+      <c r="J9" s="1">
         <v>-30</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>403</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>230</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.18</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
       <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>100</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>40</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
       <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>120</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0.12</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
       <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
         <v>100</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>20</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>10</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>428</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1">
+        <v>375</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1">
-        <v>375</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>25</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
       <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
         <v>50</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>102</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0.37</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
       <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>100</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
       <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
         <v>40</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>1995</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.36</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>60</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>100</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>30</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>35</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>3</v>
       </c>
     </row>

--- a/Assets/06 Data/ExcelData/Usable_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Usable_Item_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\duckov-clone\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD131FD-04FF-4EFE-A8BA-58737D4BC921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251FE8A-E4F7-4C87-8BB1-5AAC052FE731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="7320" windowWidth="21600" windowHeight="11295" xr2:uid="{B6FC80BC-1448-478E-B3D9-69242C647A71}"/>
+    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{B6FC80BC-1448-478E-B3D9-69242C647A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>콜라</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rarity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>일반</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -203,6 +199,18 @@
   </si>
   <si>
     <t>전설</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 소지 스택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStackSize</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -648,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03432785-0241-4416-9435-5F8D756A938F}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -666,10 +674,10 @@
     <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -703,13 +711,16 @@
       <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
@@ -738,8 +749,11 @@
       <c r="K2" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -773,13 +787,16 @@
       <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -808,13 +825,16 @@
       <c r="K4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
@@ -843,13 +863,16 @@
       <c r="K5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
@@ -878,13 +901,16 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1256</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
@@ -913,13 +939,16 @@
       <c r="K7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -948,13 +977,16 @@
       <c r="K8" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>883</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
@@ -983,13 +1015,16 @@
       <c r="K9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>403</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
@@ -1018,13 +1053,16 @@
       <c r="K10" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -1053,13 +1091,16 @@
       <c r="K11" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>428</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -1088,13 +1129,16 @@
       <c r="K12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -1123,13 +1167,16 @@
       <c r="K13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
@@ -1156,6 +1203,9 @@
         <v>35</v>
       </c>
       <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
         <v>3</v>
       </c>
     </row>

--- a/Assets/06 Data/ExcelData/Usable_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Usable_Item_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\duckov-clone\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251FE8A-E4F7-4C87-8BB1-5AAC052FE731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D78BE8-B69D-4233-93DF-07AB0B3B2089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{B6FC80BC-1448-478E-B3D9-69242C647A71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6FC80BC-1448-478E-B3D9-69242C647A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1130,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
